--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1639442080274156</v>
+        <v>-0.489562547986653</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09138122341258459</v>
+        <v>-4.354841337752969</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2086231447177131</v>
+        <v>-13.76839904823168</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1622127022924418</v>
+        <v>-6.395695828468043</v>
       </c>
       <c r="F2" t="n">
-        <v>1.288143396377563</v>
+        <v>1.648506879806519</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4257707297801971</v>
+        <v>0.8818960785865784</v>
       </c>
       <c r="H2" t="n">
-        <v>2.606303453445435</v>
+        <v>1.01311182975769</v>
       </c>
       <c r="I2" t="n">
-        <v>1.451903700828552</v>
+        <v>0.9436445832252502</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2677146504026954</v>
+        <v>-0.4298945183590701</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3841711668524004</v>
+        <v>-4.120032879078088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2494274144322646</v>
+        <v>-13.16808347412269</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1614615620030196</v>
+        <v>-6.083356181836433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8104241490364075</v>
+        <v>1.582471966743469</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5399942994117737</v>
+        <v>0.8432251811027527</v>
       </c>
       <c r="H3" t="n">
-        <v>1.618552327156067</v>
+        <v>0.9719302654266357</v>
       </c>
       <c r="I3" t="n">
-        <v>1.047551035881042</v>
+        <v>0.9037920236587524</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3548839878221418</v>
+        <v>-0.3721391459093266</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6149951225803902</v>
+        <v>-3.899690452222119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5437992312238029</v>
+        <v>-12.58369900521031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.36242217483807</v>
+        <v>-5.784935896368649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7139533758163452</v>
+        <v>1.518553614616394</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6300435662269592</v>
+        <v>0.8069366216659546</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9837620854377747</v>
+        <v>0.9318414926528931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7964992523193359</v>
+        <v>0.865715503692627</v>
       </c>
     </row>
     <row r="5">
@@ -575,679 +575,369 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5674397860070608</v>
+        <v>-0.3168737583487682</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.038963186621526</v>
+        <v>-3.691090282893721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.660838871315245</v>
+        <v>-12.03414604757321</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3874019275539402</v>
+        <v>-5.503351843426525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4787166714668274</v>
+        <v>1.457391142845154</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7954423427581787</v>
+        <v>0.7725820541381836</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7313750386238098</v>
+        <v>0.894142210483551</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7652931213378906</v>
+        <v>0.8297870755195618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_12</t>
+          <t>model_7_0_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6052575235801007</v>
+        <v>-0.2643485937959007</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4046400895057067</v>
+        <v>-3.495185706420755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3600145835710921</v>
+        <v>-11.51569846137242</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2479089169474662</v>
+        <v>-5.238307685473611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4368636012077332</v>
+        <v>1.399261355400085</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5479795932769775</v>
+        <v>0.7403181791305542</v>
       </c>
       <c r="H6" t="n">
-        <v>1.380079627037048</v>
+        <v>0.8585766553878784</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9395559430122375</v>
+        <v>0.7959691286087036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_13</t>
+          <t>model_7_0_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6112430371734636</v>
+        <v>-0.2142288733989899</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.388520676116775</v>
+        <v>-3.310362363175582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3608147423935991</v>
+        <v>-11.02135075582217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2512236320241449</v>
+        <v>-4.986941009907058</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4302394092082977</v>
+        <v>1.343793630599976</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5416910648345947</v>
+        <v>0.709879457950592</v>
       </c>
       <c r="H7" t="n">
-        <v>1.378354072570801</v>
+        <v>0.8246644139289856</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9354149699211121</v>
+        <v>0.7638963460922241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_9</t>
+          <t>model_7_0_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6149894723135696</v>
+        <v>-0.1659469989205151</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4936035864842307</v>
+        <v>-3.136422462228706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.472487891536107</v>
+        <v>-10.54530162884991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3245642297828818</v>
+        <v>-4.747633800527798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.426093190908432</v>
+        <v>1.290359735488892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5826861262321472</v>
+        <v>0.6812329888343811</v>
       </c>
       <c r="H8" t="n">
-        <v>1.137539505958557</v>
+        <v>0.7920074462890625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8437935709953308</v>
+        <v>0.7333622574806213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_14</t>
+          <t>model_7_0_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6171145141355058</v>
+        <v>-0.1196144459646653</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3712888707155915</v>
+        <v>-2.97147560757746</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3602469260216485</v>
+        <v>-10.09184719722901</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2536114616029334</v>
+        <v>-4.520190700782</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4237414002418518</v>
+        <v>1.239083290100098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5349686145782471</v>
+        <v>0.6540677547454834</v>
       </c>
       <c r="H9" t="n">
-        <v>1.379578590393066</v>
+        <v>0.7609004974365234</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9324319362640381</v>
+        <v>0.7043419480323792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_10</t>
+          <t>model_7_0_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6173249894249604</v>
+        <v>-0.07573209322833785</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4588019265317904</v>
+        <v>-2.817095503162028</v>
       </c>
       <c r="D10" t="n">
-        <v>0.452945240354468</v>
+        <v>-9.661021755070928</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3144427184005196</v>
+        <v>-4.305694017790257</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4235084652900696</v>
+        <v>1.190518498420715</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5691092610359192</v>
+        <v>0.6286425590515137</v>
       </c>
       <c r="H10" t="n">
-        <v>1.179681777954102</v>
+        <v>0.7313458919525146</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8564381003379822</v>
+        <v>0.6769734025001526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_15</t>
+          <t>model_7_0_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6193412138994483</v>
+        <v>-0.03342100040062923</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3550177669876071</v>
+        <v>-2.669943713030273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3496141086734115</v>
+        <v>-9.254053524612324</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2476642081546754</v>
+        <v>-4.102174748194042</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4212771058082581</v>
+        <v>1.14369261264801</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5286209583282471</v>
+        <v>0.6044079661369324</v>
       </c>
       <c r="H11" t="n">
-        <v>1.402507424354553</v>
+        <v>0.7034278512001038</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9398615956306458</v>
+        <v>0.6510056257247925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_11</t>
+          <t>model_7_0_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6200110644689194</v>
+        <v>0.007365185289597287</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4279533525222605</v>
+        <v>-2.529747299016915</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4351561833105231</v>
+        <v>-8.867992569895241</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3050930076965929</v>
+        <v>-3.908695971414181</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4205357730388641</v>
+        <v>1.098554253578186</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5570746660232544</v>
+        <v>0.5813188552856445</v>
       </c>
       <c r="H12" t="n">
-        <v>1.218042492866516</v>
+        <v>0.6769441366195679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8681182265281677</v>
+        <v>0.6263189911842346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_16</t>
+          <t>model_7_0_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6237544709259608</v>
+        <v>0.04607779401989953</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3389073409584387</v>
+        <v>-2.399371992278598</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3470260242259191</v>
+        <v>-8.505649337397935</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2482256464796028</v>
+        <v>-3.727929817556456</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4163928925991058</v>
+        <v>1.055710792541504</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5223358273506165</v>
+        <v>0.5598471760749817</v>
       </c>
       <c r="H13" t="n">
-        <v>1.408088445663452</v>
+        <v>0.652087390422821</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9391602873802185</v>
+        <v>0.6032543182373047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_17</t>
+          <t>model_7_0_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6271656181062616</v>
+        <v>0.08333434676413176</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3299916392080084</v>
+        <v>-2.276511645919988</v>
       </c>
       <c r="D14" t="n">
-        <v>0.340997916312753</v>
+        <v>-8.158218122645534</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2448030368314996</v>
+        <v>-3.55607058333108</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4126178324222565</v>
+        <v>1.014478802680969</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5188577175140381</v>
+        <v>0.5396131277084351</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421087622642517</v>
+        <v>0.6282535791397095</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9434360265731812</v>
+        <v>0.5813261270523071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_18</t>
+          <t>model_7_0_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.629955756242657</v>
+        <v>0.1191278401371493</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3208201448277024</v>
+        <v>-2.160996478957778</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3345462640887606</v>
+        <v>-7.831367830700582</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2410781100793922</v>
+        <v>-3.394440063569022</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4095299541950226</v>
+        <v>0.9748659133911133</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5152797102928162</v>
+        <v>0.520588755607605</v>
       </c>
       <c r="H15" t="n">
-        <v>1.435000061988831</v>
+        <v>0.6058316826820374</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9480893611907959</v>
+        <v>0.5607031583786011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_0_24</t>
+          <t>model_7_0_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6336484695218609</v>
+        <v>0.1531660586217384</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2972644829447979</v>
+        <v>-2.050089211256057</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2649609186913622</v>
+        <v>-7.535155198779282</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1884475275123374</v>
+        <v>-3.243708366414787</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4054431915283203</v>
+        <v>0.9371956586837769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5060901641845703</v>
+        <v>0.5023233294487</v>
       </c>
       <c r="H16" t="n">
-        <v>1.585055589675903</v>
+        <v>0.5855115056037903</v>
       </c>
       <c r="I16" t="n">
-        <v>1.013838648796082</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_23</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.6351436387041951</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.3017401821056283</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2848601782792511</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.2038718662115984</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.4037884771823883</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5078361630439758</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.542144298553467</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9945696592330933</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_19</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.6357794373662999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.3122949803294497</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.3385491396409701</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.2457389863505695</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.4030848145484924</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5119538903236389</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.426368236541748</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.9422667026519775</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_4</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.6360176775441413</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.6828214456520318</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.6773600753134952</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4597021111351636</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4028211534023285</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.6565039753913879</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.6957483291625977</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.6749715805053711</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_7</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6360956111842228</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.5523728181270133</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5923873838927149</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.412244175247674</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.4027349650859833</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.6056132316589355</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.8789854049682617</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.734258770942688</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_20</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.636937862761954</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.3149931239469388</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3273634410475719</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.2362067534708164</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.4018028080463409</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5130064487457275</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.450489282608032</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.9541749358177185</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_5</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6383049415134046</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.6000569196540126</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6461292187550698</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4480156911384301</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.4002898633480072</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.624215841293335</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.7630953192710876</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.6895709037780762</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_22</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6387033600930558</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.3086678533611746</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.307047492366324</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.2207498366761146</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.3998489081859589</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.5105388164520264</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.494299054145813</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.9734845757484436</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_21</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.639108732019698</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.3161766867820763</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3213157099788349</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2310984332691564</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.3994002938270569</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.5134682059288025</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.463530778884888</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.9605565667152405</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_8</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.6393827879247191</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.5152817188583356</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5764866317523039</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.4054594944085383</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3990969955921173</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.5911431908607483</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.9132742285728455</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.7427345514297485</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_7_0_6</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.6503756417234011</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.5642350541424641</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6626697606232039</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.4673739929533286</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.3869311511516571</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.6102409362792969</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.7274268865585327</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6653873920440674</v>
+        <v>0.5414707064628601</v>
       </c>
     </row>
   </sheetData>
